--- a/StudentExcelFiles/1.xlsx
+++ b/StudentExcelFiles/1.xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My programs\Node JS\nodejs-feedback\workbooks\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="7905"/>
   </bookViews>
   <sheets>
     <sheet name="details" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
   <si>
     <t>roll_no</t>
   </si>
@@ -38,32 +33,228 @@
     <t>mobile</t>
   </si>
   <si>
-    <t>UID</t>
-  </si>
-  <si>
-    <t>CSH14030</t>
-  </si>
-  <si>
-    <t>CSH14038</t>
-  </si>
-  <si>
-    <t>Raj</t>
-  </si>
-  <si>
-    <t>Adi</t>
-  </si>
-  <si>
-    <t>abcd@gmail.com</t>
-  </si>
-  <si>
-    <t>xyz@gmail.com</t>
+    <t>BANSODE KOMAL SUDHAKAR</t>
+  </si>
+  <si>
+    <t>BEHERA MAHESH UPENDRA</t>
+  </si>
+  <si>
+    <t>BHAGAT ANIKET POPAT</t>
+  </si>
+  <si>
+    <t>BHOSALE PRIYANKA KISHOR</t>
+  </si>
+  <si>
+    <t>CHAUDHARI SHEETAL B</t>
+  </si>
+  <si>
+    <t>CHAVAN SIDDHESH RAVINDRA</t>
+  </si>
+  <si>
+    <t>CHOUBEY ANKUSH BIPIN</t>
+  </si>
+  <si>
+    <t>DADAS PRAJAKTA SURESH</t>
+  </si>
+  <si>
+    <t>DESAI KUNWARSINGH ARVIND</t>
+  </si>
+  <si>
+    <t>DILPAKE RONIT AJAY</t>
+  </si>
+  <si>
+    <t>FARTALE ANKUSH POPAT</t>
+  </si>
+  <si>
+    <t>GADHAVE SUYOG SAMBHAJI</t>
+  </si>
+  <si>
+    <t>GAIKWAD ADITYA RAJU</t>
+  </si>
+  <si>
+    <t>GUPTA SONALI RAVINDRA</t>
+  </si>
+  <si>
+    <t>JADHAV ADITYA GANESH</t>
+  </si>
+  <si>
+    <t>JAIN VINIT SANTOSH</t>
+  </si>
+  <si>
+    <t>KALE SNEHA CHANDRAKANT</t>
+  </si>
+  <si>
+    <t>MHASKE ROHIT SAHEBRAO</t>
+  </si>
+  <si>
+    <t>NAIR ARUN JANARDHANAN</t>
+  </si>
+  <si>
+    <t>NAR PRASAD SURYAKANT</t>
+  </si>
+  <si>
+    <t>NAZARE SAYALI PRAVIN</t>
+  </si>
+  <si>
+    <t>PATIL NIKITA BHARAT</t>
+  </si>
+  <si>
+    <t>PATIL POOJA NAVNEET</t>
+  </si>
+  <si>
+    <t>PATIL PRAJAVAL MACCHINDRA</t>
+  </si>
+  <si>
+    <t>PAWAR AMAR ASHOK</t>
+  </si>
+  <si>
+    <t>PHATE AKSHAY SHIVRAM</t>
+  </si>
+  <si>
+    <t>SAHANI SHIVKUMAR RAMKISHUN</t>
+  </si>
+  <si>
+    <t>SHAH VADHAN JEET PRADIP</t>
+  </si>
+  <si>
+    <t>SHANBHAG MEGHA SHARADRAJ</t>
+  </si>
+  <si>
+    <t>SHARAN RAHUL BABU</t>
+  </si>
+  <si>
+    <t>SHETTY BADREESH VISHWAS</t>
+  </si>
+  <si>
+    <t>SHETTY VINAYAK ASHOK</t>
+  </si>
+  <si>
+    <t>SHINDE ROHIT RAJENDRA</t>
+  </si>
+  <si>
+    <t>SINGH VISHAL INDRASEN</t>
+  </si>
+  <si>
+    <t>SURYAGANDH PRASHIK ARUN</t>
+  </si>
+  <si>
+    <t>TIWARI SIDDHANT VIGYAN</t>
+  </si>
+  <si>
+    <t>komalbansode113@gmail.com</t>
+  </si>
+  <si>
+    <t>maheshbehera13@gmail.com</t>
+  </si>
+  <si>
+    <t>aniket21bhagat@gmail.com</t>
+  </si>
+  <si>
+    <t>priyankathebhosale@gmail.com</t>
+  </si>
+  <si>
+    <t>shitalbabanchaudhari@gmail.com</t>
+  </si>
+  <si>
+    <t>sid24chavan@gmail.com</t>
+  </si>
+  <si>
+    <t>anks.choubey@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dadasprajakta25@gmail.com
+</t>
+  </si>
+  <si>
+    <t>leokunwar95@gmail.com</t>
+  </si>
+  <si>
+    <t>ronitdilpake110@gmail.com</t>
+  </si>
+  <si>
+    <t>ankushfartale007@gmail.com</t>
+  </si>
+  <si>
+    <t>itssuyog96@gmail.com</t>
+  </si>
+  <si>
+    <t>123addy007@gmail.com</t>
+  </si>
+  <si>
+    <t>guptasonali6688@gmail.com</t>
+  </si>
+  <si>
+    <t>adityajadhav4545@gmail.com</t>
+  </si>
+  <si>
+    <t>vinit7744886603@gmail.com</t>
+  </si>
+  <si>
+    <t>kalesneha12345@gmail.com</t>
+  </si>
+  <si>
+    <t>rohitmhaske15@gmail.com</t>
+  </si>
+  <si>
+    <t>appuarunnair@gmail.com</t>
+  </si>
+  <si>
+    <t>prasadnar96@gmail.com</t>
+  </si>
+  <si>
+    <t>sayaliazare@gmail.com</t>
+  </si>
+  <si>
+    <t>patilniki51@gmail.com</t>
+  </si>
+  <si>
+    <t>pp256069@gmail.com</t>
+  </si>
+  <si>
+    <t>prajvalpatil444@gmail.com</t>
+  </si>
+  <si>
+    <t>pawaramar58@gmail.com</t>
+  </si>
+  <si>
+    <t>akshayphate@gmail.com</t>
+  </si>
+  <si>
+    <t>shivkumarsahani63@gmail.com</t>
+  </si>
+  <si>
+    <t>jeetshah252@gmail.com</t>
+  </si>
+  <si>
+    <t>meghashanbhag07@gmail.com</t>
+  </si>
+  <si>
+    <t>rahulsharan512@gmail.com</t>
+  </si>
+  <si>
+    <t>badreeshshetty@gmail.com</t>
+  </si>
+  <si>
+    <t>shetty394@gmail.com</t>
+  </si>
+  <si>
+    <t>rohitrshinde@gmail.com</t>
+  </si>
+  <si>
+    <t>singh.vishal329@gmail.com</t>
+  </si>
+  <si>
+    <t>suryagandh.prashik@gmail.com</t>
+  </si>
+  <si>
+    <t>tiwari.siddhant.ce@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -72,15 +263,39 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
+      <sz val="12.1"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12.1"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="9.9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12.1"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -93,8 +308,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -102,20 +323,123 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -174,7 +498,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -209,7 +533,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -386,86 +710,744 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="39.85546875" customWidth="1"/>
     <col min="3" max="3" width="31.140625" customWidth="1"/>
     <col min="4" max="4" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="2"/>
+    </row>
+    <row r="2" spans="1:5" ht="16.5" thickBot="1">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="C2" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="3">
+        <v>7678037005</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="16.5" thickBot="1">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="5">
+        <v>9768060569</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="16.5" thickBot="1">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="5">
+        <v>7715925242</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="16.5" thickBot="1">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C5" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="5">
+        <v>9167361538</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="16.5" thickBot="1">
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="5">
+        <v>8652698579</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="16.5" thickBot="1">
+      <c r="A7" s="5">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D2">
-        <v>9820035038</v>
-      </c>
-      <c r="E2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="C7" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="5">
+        <v>9821471044</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="16.5" thickBot="1">
+      <c r="A8" s="5">
+        <v>7</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="5">
+        <v>7709473553</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="16.5" thickBot="1">
+      <c r="A9" s="5">
         <v>8</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="B9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="5">
+        <v>7038915843</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="16.5" thickBot="1">
+      <c r="A10" s="5">
+        <v>9</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="5">
+        <v>7498114020</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="16.5" thickBot="1">
+      <c r="A11" s="5">
         <v>10</v>
       </c>
-      <c r="D3">
-        <v>9644240554</v>
-      </c>
-      <c r="E3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C4" s="1"/>
+      <c r="B11" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="5">
+        <v>9920110426</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="16.5" thickBot="1">
+      <c r="A12" s="5"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="5"/>
+    </row>
+    <row r="13" spans="1:5" ht="16.5" thickBot="1">
+      <c r="A13" s="5"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+    </row>
+    <row r="14" spans="1:5" ht="16.5" thickBot="1">
+      <c r="A14" s="5">
+        <v>13</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="5">
+        <v>9004601782</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="16.5" thickBot="1">
+      <c r="A15" s="5">
+        <v>14</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" s="5">
+        <v>7738026211</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="16.5" thickBot="1">
+      <c r="A16" s="5">
+        <v>15</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" s="5">
+        <v>8108920863</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="16.5" thickBot="1">
+      <c r="A17" s="5"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+    </row>
+    <row r="18" spans="1:4" ht="16.5" thickBot="1">
+      <c r="A18" s="5"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+    </row>
+    <row r="19" spans="1:4" ht="16.5" thickBot="1">
+      <c r="A19" s="5">
+        <v>18</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19" s="5">
+        <v>9768014162</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="16.5" thickBot="1">
+      <c r="A20" s="5"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+    </row>
+    <row r="21" spans="1:4" ht="16.5" thickBot="1">
+      <c r="A21" s="5"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+    </row>
+    <row r="22" spans="1:4" ht="16.5" thickBot="1">
+      <c r="A22" s="5">
+        <v>21</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D22" s="5">
+        <v>7276032949</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="16.5" thickBot="1">
+      <c r="A23" s="5"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+    </row>
+    <row r="24" spans="1:4" ht="16.5" thickBot="1">
+      <c r="A24" s="5">
+        <v>23</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D24" s="5">
+        <v>7744886603</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="16.5" thickBot="1">
+      <c r="A25" s="5">
+        <v>24</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D25" s="9">
+        <v>1212121210</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="16.5" thickBot="1">
+      <c r="A26" s="5"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+    </row>
+    <row r="27" spans="1:4" ht="16.5" thickBot="1">
+      <c r="A27" s="5"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+    </row>
+    <row r="28" spans="1:4" ht="16.5" thickBot="1">
+      <c r="A28" s="5"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+    </row>
+    <row r="29" spans="1:4" ht="16.5" thickBot="1">
+      <c r="A29" s="5"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+    </row>
+    <row r="30" spans="1:4" ht="16.5" thickBot="1">
+      <c r="A30" s="5"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+    </row>
+    <row r="31" spans="1:4" ht="16.5" thickBot="1">
+      <c r="A31" s="5"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+    </row>
+    <row r="32" spans="1:4" ht="16.5" thickBot="1">
+      <c r="A32" s="5"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+    </row>
+    <row r="33" spans="1:4" ht="16.5" thickBot="1">
+      <c r="A33" s="5">
+        <v>32</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D33" s="5">
+        <v>7588414900</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="16.5" thickBot="1">
+      <c r="A34" s="5"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+    </row>
+    <row r="35" spans="1:4" ht="16.5" thickBot="1">
+      <c r="A35" s="5"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+    </row>
+    <row r="36" spans="1:4" ht="16.5" thickBot="1">
+      <c r="A36" s="5"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+    </row>
+    <row r="37" spans="1:4" ht="16.5" thickBot="1">
+      <c r="A37" s="5">
+        <v>36</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D37" s="5">
+        <v>9820055038</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="16.5" thickBot="1">
+      <c r="A38" s="5">
+        <v>37</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D38" s="5">
+        <v>9619096153</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="16.5" thickBot="1">
+      <c r="A39" s="5">
+        <v>38</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C39" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D39" s="5">
+        <v>7666281947</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="16.5" thickBot="1">
+      <c r="A40" s="5"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+    </row>
+    <row r="41" spans="1:4" ht="16.5" thickBot="1">
+      <c r="A41" s="5">
+        <v>40</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C41" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="D41" s="5">
+        <v>8828347700</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="16.5" thickBot="1">
+      <c r="A42" s="5">
+        <v>41</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C42" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D42" s="9"/>
+    </row>
+    <row r="43" spans="1:4" ht="16.5" thickBot="1">
+      <c r="A43" s="5">
+        <v>42</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C43" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="D43" s="5">
+        <v>7066573936</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="16.5" thickBot="1">
+      <c r="A44" s="5"/>
+      <c r="B44" s="6"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="9"/>
+    </row>
+    <row r="45" spans="1:4" ht="16.5" thickBot="1">
+      <c r="A45" s="5">
+        <v>44</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C45" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="D45" s="5">
+        <v>8286454274</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="16.5" thickBot="1">
+      <c r="A46" s="5">
+        <v>45</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C46" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="D46" s="9">
+        <v>1234567899</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="16.5" thickBot="1">
+      <c r="A47" s="5"/>
+      <c r="B47" s="8"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
+    </row>
+    <row r="48" spans="1:4" ht="16.5" thickBot="1">
+      <c r="A48" s="5"/>
+      <c r="B48" s="6"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
+    </row>
+    <row r="49" spans="1:4" ht="16.5" thickBot="1">
+      <c r="A49" s="5"/>
+      <c r="B49" s="7"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="9"/>
+    </row>
+    <row r="50" spans="1:4" ht="16.5" thickBot="1">
+      <c r="A50" s="5">
+        <v>49</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C50" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D50" s="5">
+        <v>9594911817</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="16.5" thickBot="1">
+      <c r="A51" s="5"/>
+      <c r="B51" s="6"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="9"/>
+    </row>
+    <row r="52" spans="1:4" ht="16.5" thickBot="1">
+      <c r="A52" s="5"/>
+      <c r="B52" s="6"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="9"/>
+    </row>
+    <row r="53" spans="1:4" ht="16.5" thickBot="1">
+      <c r="A53" s="5">
+        <v>52</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C53" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="D53" s="5">
+        <v>9867909912</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="16.5" thickBot="1">
+      <c r="A54" s="5">
+        <v>53</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C54" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="D54" s="5">
+        <v>9769475644</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="16.5" thickBot="1">
+      <c r="A55" s="5">
+        <v>54</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C55" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="D55" s="5">
+        <v>7387903544</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="16.5" thickBot="1">
+      <c r="A56" s="5">
+        <v>55</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C56" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D56" s="5">
+        <v>8879373052</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="16.5" thickBot="1">
+      <c r="A57" s="5">
+        <v>56</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C57" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D57" s="5">
+        <v>8693818393</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="16.5" thickBot="1">
+      <c r="A58" s="5"/>
+      <c r="B58" s="6"/>
+      <c r="C58" s="9"/>
+      <c r="D58" s="9"/>
+    </row>
+    <row r="59" spans="1:4" ht="16.5" thickBot="1">
+      <c r="A59" s="5">
+        <v>58</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C59" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D59" s="5">
+        <v>8689975769</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="16.5" thickBot="1">
+      <c r="A60" s="5">
+        <v>59</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C60" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="D60" s="5">
+        <v>8080904959</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="16.5" thickBot="1">
+      <c r="A61" s="5"/>
+      <c r="B61" s="6"/>
+      <c r="C61" s="9"/>
+      <c r="D61" s="9"/>
+    </row>
+    <row r="62" spans="1:4" ht="16.5" thickBot="1">
+      <c r="A62" s="5">
+        <v>61</v>
+      </c>
+      <c r="B62" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C62" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="D62" s="5">
+        <v>8888651132</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="16.5" thickBot="1">
+      <c r="A63" s="5"/>
+      <c r="B63" s="6"/>
+      <c r="C63" s="9"/>
+      <c r="D63" s="9"/>
+    </row>
+    <row r="64" spans="1:4" ht="16.5" thickBot="1">
+      <c r="A64" s="5"/>
+      <c r="B64" s="8"/>
+      <c r="C64" s="9"/>
+      <c r="D64" s="9"/>
+    </row>
+    <row r="65" spans="1:4" ht="16.5" thickBot="1">
+      <c r="A65" s="5">
+        <v>64</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C65" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="D65" s="5">
+        <v>9769753922</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="16.5" thickBot="1">
+      <c r="A66" s="5"/>
+      <c r="B66" s="6"/>
+      <c r="C66" s="9"/>
+      <c r="D66" s="9"/>
+    </row>
+    <row r="67" spans="1:4" ht="16.5" thickBot="1">
+      <c r="A67" s="5"/>
+      <c r="B67" s="6"/>
+      <c r="C67" s="9"/>
+      <c r="D67" s="9"/>
+    </row>
+    <row r="68" spans="1:4" ht="16.5" thickBot="1">
+      <c r="A68" s="5"/>
+      <c r="B68" s="6"/>
+      <c r="C68" s="9"/>
+      <c r="D68" s="9"/>
+    </row>
+    <row r="69" spans="1:4" ht="16.5" thickBot="1">
+      <c r="A69" s="5"/>
+      <c r="B69" s="6"/>
+      <c r="C69" s="9"/>
+      <c r="D69" s="9"/>
+    </row>
+    <row r="70" spans="1:4" ht="16.5" thickBot="1">
+      <c r="A70" s="5"/>
+      <c r="B70" s="6"/>
+      <c r="C70" s="9"/>
+      <c r="D70" s="9"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="C3" r:id="rId2"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>